--- a/biology/Mycologie/Bolbitiaceae/Bolbitiaceae.xlsx
+++ b/biology/Mycologie/Bolbitiaceae/Bolbitiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Bolbitiaceae sont une famille de champignons (Fungi) basidiomycètes du clade VI Agaricoïde de l'ordre des Agaricales. 
 </t>
@@ -511,7 +523,9 @@
           <t>Spécificités de la famille</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Hyménium lamellé, spores brunes et cuticule (piléipellis) de type hyménoderme.
 </t>
@@ -542,7 +556,9 @@
           <t>Spécificités des genres de la famille</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les Bolbitius sont des champignons ténus et graciles, ressemblant aux Mycena, avec un chapeau à surface gélatineuse, dépourvus de voile partiel, ils sont saprotrophes et on les trouve habituellement dans l'herbe.
 Les Conocybe sont des champignons minces, ressemblant aux Mycena, avec la surface du chapeau sèche. Ce sont de petits saprotrophes qui poussent généralement dans l'herbe. Ils ont des cheilocystides capitées.
@@ -574,7 +590,9 @@
           <t>Classement phylogénétique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Agaricales
@@ -624,7 +642,9 @@
           <t>Classification linnéenne</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Bolbitaceae contiennent 11 genres :
  Genre Agrogaster
